--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식_국어_복습_한자어2.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_객관식_국어_복습_한자어2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,22 +493,94 @@
 3. 단서</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B3" t="n">
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>1, 귀천</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>20221208</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>基盤[basis]
+1. 기반
+2. 귀중
+3. 단서</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1, 기반</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20221208</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>端緖[Ductive]
+1. 내과
+2. 단서
+3. 한자</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2, 단서</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20221208</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>抛棄[abandon]
+1. 포기
+2. 투수
+3. 간만</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1, 포기</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>20221208</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
